--- a/automate/תבנית זמינות.xlsx
+++ b/automate/תבנית זמינות.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2805" yWindow="2805" windowWidth="22155" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2115" yWindow="2115" windowWidth="22155" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -53,6 +53,15 @@
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -350,9 +359,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -363,9 +370,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -374,7 +379,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -385,7 +392,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -470,6 +479,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,11 +509,8 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,7 +858,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -922,27 +931,27 @@
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="18" t="inlineStr">
         <is>
-          <t>אמור</t>
+          <t>רוני</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>morning.night</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
           <t>morning.noon</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>morning.night</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -952,19 +961,15 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="n"/>
       <c r="I2" s="19" t="n">
         <v>6</v>
       </c>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="37" t="n">
+      <c r="K2" s="38" t="n">
         <v>2</v>
       </c>
       <c r="L2" s="5" t="n"/>
@@ -977,32 +982,32 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
+          <t>morning.noon</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>noon</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>morning.noon</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
           <t>noon.night</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>morning</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>noon.night</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
@@ -1014,7 +1019,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="5" t="n"/>
-      <c r="K3" s="38" t="n">
+      <c r="K3" s="39" t="n">
         <v>2</v>
       </c>
       <c r="L3" s="5" t="n"/>
@@ -1022,7 +1027,7 @@
     <row r="4" ht="20.65" customHeight="1">
       <c r="A4" s="22" t="inlineStr">
         <is>
-          <t>עמית</t>
+          <t>אמור</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -1032,17 +1037,17 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>noon.night</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
@@ -1052,19 +1057,19 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="I4" s="23" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="5" t="n"/>
-      <c r="K4" s="39" t="n">
+      <c r="K4" s="40" t="n">
         <v>2</v>
       </c>
       <c r="L4" s="5" t="n"/>
@@ -1072,45 +1077,49 @@
     <row r="5" ht="19.15" customHeight="1">
       <c r="A5" s="24" t="inlineStr">
         <is>
-          <t>רוני</t>
+          <t>עמית</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>noon.night</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
           <t>night</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>morning.night</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>noon.night</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>morning</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="I5" s="25" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="5" t="n"/>
-      <c r="K5" s="40" t="n">
+      <c r="K5" s="41" t="n">
         <v>2</v>
       </c>
       <c r="L5" s="5" t="n"/>
@@ -1152,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="5" t="n"/>
-      <c r="K6" s="41" t="n">
+      <c r="K6" s="42" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="5" t="n"/>
@@ -1202,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="5" t="n"/>
-      <c r="K7" s="42" t="n">
+      <c r="K7" s="43" t="n">
         <v>2</v>
       </c>
       <c r="L7" s="5" t="n"/>
@@ -1252,8 +1261,8 @@
         <v>6</v>
       </c>
       <c r="J8" s="5" t="n"/>
-      <c r="K8" s="43" t="n">
-        <v>3</v>
+      <c r="K8" s="44" t="n">
+        <v>2</v>
       </c>
       <c r="L8" s="5" t="n"/>
     </row>
@@ -1298,11 +1307,11 @@
           <t>f</t>
         </is>
       </c>
-      <c r="I9" s="36" t="n">
+      <c r="I9" s="37" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="5" t="n"/>
-      <c r="K9" s="44" t="n">
+      <c r="K9" s="45" t="n">
         <v>6</v>
       </c>
       <c r="L9" s="5" t="n"/>
@@ -1375,7 +1384,7 @@
           <t>הערות:</t>
         </is>
       </c>
-      <c r="B13" s="45" t="inlineStr">
+      <c r="B13" s="36" t="inlineStr">
         <is>
           <t>אם מישהו יכול עד שעה מסויימת תרשום בתוך סוגריים מעוגלות למשל- צהריים עד 21 יהיה: (21:00)b</t>
         </is>

--- a/automate/תבנית זמינות.xlsx
+++ b/automate/תבנית זמינות.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2115" yWindow="2115" windowWidth="22155" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -53,15 +53,6 @@
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -151,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -220,15 +211,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -359,7 +341,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -370,7 +354,54 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -379,9 +410,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -392,9 +421,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -402,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,53 +450,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="13" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,38 +505,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,79 +887,84 @@
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col width="14.140625" customWidth="1" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" min="2" max="2"/>
+    <col width="14.109375" customWidth="1" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="11.140625" customWidth="1" min="4" max="4"/>
-    <col width="11.7109375" customWidth="1" min="5" max="5"/>
-    <col width="12.42578125" customWidth="1" min="6" max="6"/>
-    <col width="11.28515625" customWidth="1" min="7" max="7"/>
-    <col width="14.42578125" customWidth="1" min="9" max="9"/>
-    <col width="3.140625" customWidth="1" min="10" max="10"/>
-    <col width="26.28515625" customWidth="1" min="11" max="11"/>
+    <col width="11.109375" customWidth="1" min="4" max="4"/>
+    <col width="11.6640625" customWidth="1" min="5" max="5"/>
+    <col width="12.44140625" customWidth="1" min="6" max="6"/>
+    <col width="11.33203125" customWidth="1" min="7" max="7"/>
+    <col width="14.44140625" customWidth="1" min="9" max="9"/>
+    <col width="3.109375" customWidth="1" min="10" max="10"/>
+    <col width="26.33203125" customWidth="1" min="11" max="11"/>
     <col width="3" customWidth="1" min="12" max="12"/>
-    <col width="24.7109375" customWidth="1" min="13" max="13"/>
-    <col width="2.42578125" customWidth="1" min="14" max="14"/>
+    <col width="24.6640625" customWidth="1" min="13" max="13"/>
+    <col width="2.44140625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.65" customHeight="1">
-      <c r="A1" s="15" t="n"/>
-      <c r="B1" s="16" t="inlineStr">
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" s="14" t="n"/>
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>א</t>
         </is>
       </c>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>ב</t>
         </is>
       </c>
-      <c r="D1" s="16" t="inlineStr">
+      <c r="D1" s="15" t="inlineStr">
         <is>
           <t>ג</t>
         </is>
       </c>
-      <c r="E1" s="16" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>ד</t>
         </is>
       </c>
-      <c r="F1" s="16" t="inlineStr">
+      <c r="F1" s="15" t="inlineStr">
         <is>
           <t>ה</t>
         </is>
       </c>
-      <c r="G1" s="16" t="inlineStr">
+      <c r="G1" s="15" t="inlineStr">
         <is>
           <t>ו</t>
         </is>
       </c>
-      <c r="H1" s="16" t="inlineStr">
+      <c r="H1" s="15" t="inlineStr">
         <is>
           <t>ש</t>
         </is>
       </c>
-      <c r="I1" s="17" t="inlineStr">
+      <c r="I1" s="16" t="inlineStr">
         <is>
           <t>כמות משמרות:</t>
         </is>
       </c>
-      <c r="J1" s="9" t="n"/>
-      <c r="K1" s="17" t="inlineStr">
+      <c r="J1" s="39" t="n"/>
+      <c r="K1" s="40" t="inlineStr">
         <is>
           <t>כמות לילות:</t>
         </is>
       </c>
-      <c r="L1" s="9" t="n"/>
+      <c r="L1" s="39" t="n"/>
+      <c r="M1" s="40" t="inlineStr">
+        <is>
+          <t>העדפה ללילות רצופים Y/N:</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="18" t="inlineStr">
+      <c r="A2" s="17" t="inlineStr">
         <is>
           <t>רוני</t>
         </is>
@@ -965,17 +1000,22 @@
         </is>
       </c>
       <c r="H2" s="1" t="n"/>
-      <c r="I2" s="19" t="n">
+      <c r="I2" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="n"/>
-      <c r="K2" s="38" t="n">
+      <c r="J2" s="39" t="n"/>
+      <c r="K2" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="21.4" customHeight="1">
-      <c r="A3" s="20" t="inlineStr">
+      <c r="L2" s="39" t="n"/>
+      <c r="M2" s="41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="21.45" customHeight="1">
+      <c r="A3" s="19" t="inlineStr">
         <is>
           <t>אור</t>
         </is>
@@ -1015,17 +1055,22 @@
           <t>morning.noon.night</t>
         </is>
       </c>
-      <c r="I3" s="21" t="n">
+      <c r="I3" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="n"/>
-      <c r="K3" s="39" t="n">
+      <c r="J3" s="39" t="n"/>
+      <c r="K3" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="5" t="n"/>
-    </row>
-    <row r="4" ht="20.65" customHeight="1">
-      <c r="A4" s="22" t="inlineStr">
+      <c r="L3" s="39" t="n"/>
+      <c r="M3" s="42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20.7" customHeight="1">
+      <c r="A4" s="21" t="inlineStr">
         <is>
           <t>אמור</t>
         </is>
@@ -1065,17 +1110,22 @@
           <t>morning.noon.night</t>
         </is>
       </c>
-      <c r="I4" s="23" t="n">
+      <c r="I4" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="40" t="n">
+      <c r="J4" s="39" t="n"/>
+      <c r="K4" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="19.15" customHeight="1">
-      <c r="A5" s="24" t="inlineStr">
+      <c r="L4" s="39" t="n"/>
+      <c r="M4" s="43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="19.2" customHeight="1">
+      <c r="A5" s="23" t="inlineStr">
         <is>
           <t>עמית</t>
         </is>
@@ -1115,17 +1165,22 @@
           <t>night</t>
         </is>
       </c>
-      <c r="I5" s="25" t="n">
+      <c r="I5" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="41" t="n">
+      <c r="J5" s="39" t="n"/>
+      <c r="K5" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="L5" s="5" t="n"/>
+      <c r="L5" s="39" t="n"/>
+      <c r="M5" s="44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="26" t="inlineStr">
+      <c r="A6" s="25" t="inlineStr">
         <is>
           <t>יניב</t>
         </is>
@@ -1157,17 +1212,22 @@
           <t>morning.noon.night</t>
         </is>
       </c>
-      <c r="I6" s="27" t="n">
+      <c r="I6" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="J6" s="5" t="n"/>
-      <c r="K6" s="42" t="n">
+      <c r="J6" s="39" t="n"/>
+      <c r="K6" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="5" t="n"/>
-    </row>
-    <row r="7" ht="19.9" customHeight="1">
-      <c r="A7" s="28" t="inlineStr">
+      <c r="L6" s="39" t="n"/>
+      <c r="M6" s="45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="19.95" customHeight="1">
+      <c r="A7" s="27" t="inlineStr">
         <is>
           <t>זיו</t>
         </is>
@@ -1207,176 +1267,191 @@
           <t>morning.noon</t>
         </is>
       </c>
-      <c r="I7" s="29" t="n">
+      <c r="I7" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="43" t="n">
+      <c r="J7" s="39" t="n"/>
+      <c r="K7" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="5" t="n"/>
-    </row>
-    <row r="8" ht="18.4" customHeight="1" thickBot="1">
-      <c r="A8" s="30" t="inlineStr">
+      <c r="L7" s="39" t="n"/>
+      <c r="M7" s="46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18.45" customHeight="1" thickBot="1">
+      <c r="A8" s="29" t="inlineStr">
         <is>
           <t>אוראל</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
         <is>
           <t>morning.noon</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="E8" s="14" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="E8" s="13" t="inlineStr">
         <is>
           <t>morning</t>
         </is>
       </c>
-      <c r="F8" s="14" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="G8" s="14" t="inlineStr">
+      <c r="F8" s="13" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="G8" s="13" t="inlineStr">
         <is>
           <t>morning.noon</t>
         </is>
       </c>
-      <c r="H8" s="14" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="I8" s="31" t="n">
+      <c r="H8" s="13" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="I8" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="J8" s="5" t="n"/>
-      <c r="K8" s="44" t="n">
+      <c r="J8" s="39" t="n"/>
+      <c r="K8" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="5" t="n"/>
+      <c r="L8" s="39" t="n"/>
+      <c r="M8" s="47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="32" t="inlineStr">
+      <c r="A9" s="31" t="inlineStr">
         <is>
           <t>תגבור</t>
         </is>
       </c>
-      <c r="B9" s="33" t="inlineStr">
+      <c r="B9" s="32" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="C9" s="34" t="inlineStr">
+      <c r="C9" s="33" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="D9" s="34" t="inlineStr">
+      <c r="D9" s="33" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="E9" s="33" t="inlineStr">
+      <c r="E9" s="32" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="F9" s="33" t="inlineStr">
+      <c r="F9" s="32" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="G9" s="33" t="inlineStr">
+      <c r="G9" s="32" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="H9" s="33" t="inlineStr">
+      <c r="H9" s="32" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
-      <c r="I9" s="37" t="n">
+      <c r="I9" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="5" t="n"/>
-      <c r="K9" s="45" t="n">
+      <c r="J9" s="39" t="n"/>
+      <c r="K9" s="48" t="n">
         <v>6</v>
       </c>
-      <c r="L9" s="5" t="n"/>
+      <c r="L9" s="39" t="n"/>
+      <c r="M9" s="48" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n"/>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="5" t="n"/>
-      <c r="L10" s="5" t="n"/>
-    </row>
-    <row r="11" ht="32.65" customHeight="1">
-      <c r="A11" s="14" t="inlineStr">
+      <c r="A10" s="39" t="n"/>
+      <c r="B10" s="39" t="n"/>
+      <c r="C10" s="39" t="n"/>
+      <c r="D10" s="39" t="n"/>
+      <c r="E10" s="39" t="n"/>
+      <c r="F10" s="39" t="n"/>
+      <c r="G10" s="39" t="n"/>
+      <c r="H10" s="39" t="n"/>
+      <c r="I10" s="39" t="n"/>
+      <c r="J10" s="39" t="n"/>
+      <c r="K10" s="39" t="n"/>
+      <c r="L10" s="39" t="n"/>
+    </row>
+    <row r="11" ht="32.7" customHeight="1">
+      <c r="A11" s="13" t="inlineStr">
         <is>
           <t>כמות משמרות בכל יום</t>
         </is>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="14" t="n">
+      <c r="G11" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="H11" s="14" t="n">
+      <c r="H11" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="5" t="n"/>
-      <c r="L11" s="5" t="n"/>
+      <c r="I11" s="39" t="n"/>
+      <c r="J11" s="39" t="n"/>
+      <c r="K11" s="39" t="n"/>
+      <c r="L11" s="39" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
-      <c r="M12" s="5" t="n"/>
-      <c r="N12" s="5" t="n"/>
+      <c r="A12" s="39" t="n"/>
+      <c r="B12" s="39" t="n"/>
+      <c r="C12" s="39" t="n"/>
+      <c r="D12" s="39" t="n"/>
+      <c r="E12" s="39" t="n"/>
+      <c r="F12" s="39" t="n"/>
+      <c r="G12" s="39" t="n"/>
+      <c r="H12" s="39" t="n"/>
+      <c r="I12" s="39" t="n"/>
+      <c r="J12" s="39" t="n"/>
+      <c r="K12" s="39" t="n"/>
+      <c r="L12" s="39" t="n"/>
+      <c r="M12" s="39" t="n"/>
+      <c r="N12" s="39" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -1389,39 +1464,39 @@
           <t>אם מישהו יכול עד שעה מסויימת תרשום בתוך סוגריים מעוגלות למשל- צהריים עד 21 יהיה: (21:00)b</t>
         </is>
       </c>
-      <c r="C13" s="46" t="n"/>
-      <c r="D13" s="46" t="n"/>
-      <c r="E13" s="46" t="n"/>
-      <c r="F13" s="46" t="n"/>
-      <c r="G13" s="46" t="n"/>
-      <c r="H13" s="47" t="n"/>
-      <c r="J13" s="5" t="n"/>
+      <c r="C13" s="37" t="n"/>
+      <c r="D13" s="37" t="n"/>
+      <c r="E13" s="37" t="n"/>
+      <c r="F13" s="37" t="n"/>
+      <c r="G13" s="37" t="n"/>
+      <c r="H13" s="38" t="n"/>
+      <c r="J13" s="39" t="n"/>
       <c r="K13" s="6" t="inlineStr">
         <is>
           <t>מקרא:</t>
         </is>
       </c>
-      <c r="L13" s="11" t="n"/>
+      <c r="L13" s="10" t="n"/>
       <c r="M13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> אותיות:</t>
         </is>
       </c>
-      <c r="N13" s="10" t="n"/>
+      <c r="N13" s="9" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="35" t="inlineStr">
+      <c r="B14" s="34" t="inlineStr">
         <is>
           <t>אם מישהו יכול משעה מסויימת תרשום בתוך סוגריים מרובעות למשל-צהריים מ15:30 יהיה: [15:30]b</t>
         </is>
       </c>
-      <c r="C14" s="35" t="n"/>
-      <c r="D14" s="35" t="n"/>
-      <c r="E14" s="35" t="n"/>
-      <c r="F14" s="35" t="n"/>
-      <c r="G14" s="35" t="n"/>
-      <c r="H14" s="35" t="n"/>
-      <c r="J14" s="5" t="n"/>
+      <c r="C14" s="34" t="n"/>
+      <c r="D14" s="34" t="n"/>
+      <c r="E14" s="34" t="n"/>
+      <c r="F14" s="34" t="n"/>
+      <c r="G14" s="34" t="n"/>
+      <c r="H14" s="34" t="n"/>
+      <c r="J14" s="39" t="n"/>
       <c r="K14" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> - רק בוקר</t>
@@ -1433,21 +1508,21 @@
           <t>a</t>
         </is>
       </c>
-      <c r="N14" s="5" t="n"/>
+      <c r="N14" s="39" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="35" t="inlineStr">
+      <c r="B15" s="34" t="inlineStr">
         <is>
           <t>אם מישהו יכול כמה משמרות באותו יום תפריד ע"י נקודה למשל: a.b.c</t>
         </is>
       </c>
-      <c r="C15" s="35" t="n"/>
-      <c r="D15" s="35" t="n"/>
-      <c r="E15" s="35" t="n"/>
-      <c r="F15" s="35" t="n"/>
-      <c r="G15" s="35" t="n"/>
-      <c r="H15" s="35" t="n"/>
-      <c r="J15" s="5" t="n"/>
+      <c r="C15" s="34" t="n"/>
+      <c r="D15" s="34" t="n"/>
+      <c r="E15" s="34" t="n"/>
+      <c r="F15" s="34" t="n"/>
+      <c r="G15" s="34" t="n"/>
+      <c r="H15" s="34" t="n"/>
+      <c r="J15" s="39" t="n"/>
       <c r="K15" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> - רק צהריים</t>
@@ -1459,20 +1534,20 @@
           <t>b</t>
         </is>
       </c>
-      <c r="N15" s="5" t="n"/>
+      <c r="N15" s="39" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="35" t="inlineStr">
+      <c r="B16" s="34" t="inlineStr">
         <is>
           <t>אם תרצה לשנות אותיות תחליף את האות שנמצאת בתא של "בחירת אותיות"-M1 (חייב אות יחידה באנגלית)</t>
         </is>
       </c>
-      <c r="C16" s="35" t="n"/>
-      <c r="D16" s="35" t="n"/>
-      <c r="E16" s="35" t="n"/>
-      <c r="F16" s="35" t="n"/>
-      <c r="G16" s="35" t="n"/>
-      <c r="H16" s="35" t="n"/>
+      <c r="C16" s="34" t="n"/>
+      <c r="D16" s="34" t="n"/>
+      <c r="E16" s="34" t="n"/>
+      <c r="F16" s="34" t="n"/>
+      <c r="G16" s="34" t="n"/>
+      <c r="H16" s="34" t="n"/>
       <c r="K16" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> - רק לילה</t>
@@ -1484,20 +1559,20 @@
           <t>c</t>
         </is>
       </c>
-      <c r="N16" s="5" t="n"/>
+      <c r="N16" s="39" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="35" t="inlineStr">
+      <c r="B17" s="34" t="inlineStr">
         <is>
           <t>לשמור על סדר באותיות למשל אם מישהו רוצה בוקר צהריים אז לרשום: a.b (ולא לרשום b.a)</t>
         </is>
       </c>
-      <c r="C17" s="35" t="n"/>
-      <c r="D17" s="35" t="n"/>
-      <c r="E17" s="35" t="n"/>
-      <c r="F17" s="35" t="n"/>
-      <c r="G17" s="35" t="n"/>
-      <c r="H17" s="35" t="n"/>
+      <c r="C17" s="34" t="n"/>
+      <c r="D17" s="34" t="n"/>
+      <c r="E17" s="34" t="n"/>
+      <c r="F17" s="34" t="n"/>
+      <c r="G17" s="34" t="n"/>
+      <c r="H17" s="34" t="n"/>
       <c r="K17" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> - פנוי להכל</t>
@@ -1509,7 +1584,7 @@
           <t>f</t>
         </is>
       </c>
-      <c r="N17" s="5" t="n"/>
+      <c r="N17" s="39" t="n"/>
     </row>
     <row r="18">
       <c r="K18" s="8" t="inlineStr">
@@ -1518,14 +1593,14 @@
         </is>
       </c>
       <c r="L18" s="4" t="n"/>
-      <c r="M18" s="12" t="n"/>
-      <c r="N18" s="5" t="n"/>
+      <c r="M18" s="11" t="n"/>
+      <c r="N18" s="39" t="n"/>
     </row>
     <row r="19">
-      <c r="K19" s="5" t="n"/>
-      <c r="L19" s="5" t="n"/>
-      <c r="M19" s="5" t="n"/>
-      <c r="N19" s="5" t="n"/>
+      <c r="K19" s="39" t="n"/>
+      <c r="L19" s="39" t="n"/>
+      <c r="M19" s="39" t="n"/>
+      <c r="N19" s="39" t="n"/>
     </row>
     <row r="20">
       <c r="K20" s="8" t="inlineStr">
@@ -1533,11 +1608,11 @@
           <t>כמות אנשים:</t>
         </is>
       </c>
-      <c r="L20" s="5" t="n"/>
+      <c r="L20" s="39" t="n"/>
       <c r="M20" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="N20" s="5" t="n"/>
+      <c r="N20" s="39" t="n"/>
     </row>
     <row r="21">
       <c r="K21" s="8" t="inlineStr">
@@ -1545,15 +1620,15 @@
           <t>כמות לילות לכל עובד:</t>
         </is>
       </c>
-      <c r="L21" s="5" t="n"/>
+      <c r="L21" s="39" t="n"/>
       <c r="M21" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N21" s="5" t="n"/>
+      <c r="N21" s="39" t="n"/>
     </row>
     <row r="22">
-      <c r="L22" s="5" t="n"/>
-      <c r="N22" s="5" t="n"/>
+      <c r="L22" s="39" t="n"/>
+      <c r="N22" s="39" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/automate/תבנית זמינות.xlsx
+++ b/automate/תבנית זמינות.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1080" yWindow="1080" windowWidth="20868" windowHeight="10380" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -508,39 +508,41 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,10 +887,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -906,6 +908,12 @@
     <col width="3" customWidth="1" min="12" max="12"/>
     <col width="24.6640625" customWidth="1" min="13" max="13"/>
     <col width="2.44140625" customWidth="1" min="14" max="14"/>
+    <col width="16.6640625" customWidth="1" min="15" max="15"/>
+    <col width="2.5546875" customWidth="1" min="16" max="16"/>
+    <col width="16.33203125" customWidth="1" min="17" max="17"/>
+    <col width="2.109375" customWidth="1" min="18" max="18"/>
+    <col width="12.77734375" customWidth="1" min="19" max="19"/>
+    <col width="2.109375" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.7" customHeight="1">
@@ -950,74 +958,98 @@
           <t>כמות משמרות:</t>
         </is>
       </c>
-      <c r="J1" s="39" t="n"/>
-      <c r="K1" s="40" t="inlineStr">
+      <c r="J1" s="5" t="n"/>
+      <c r="K1" s="36" t="inlineStr">
         <is>
           <t>כמות לילות:</t>
         </is>
       </c>
-      <c r="L1" s="39" t="n"/>
-      <c r="M1" s="40" t="inlineStr">
+      <c r="L1" s="5" t="n"/>
+      <c r="M1" s="36" t="inlineStr">
         <is>
           <t>העדפה ללילות רצופים Y/N:</t>
         </is>
       </c>
+      <c r="N1" s="5" t="n"/>
+      <c r="O1" s="36" t="inlineStr">
+        <is>
+          <t>הערות:</t>
+        </is>
+      </c>
+      <c r="P1" s="5" t="n"/>
+      <c r="Q1" s="36" t="inlineStr">
+        <is>
+          <t>כמות 8-8:</t>
+        </is>
+      </c>
+      <c r="R1" s="5" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="17" t="inlineStr">
         <is>
-          <t>רוני</t>
+          <t>אור</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>noon</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>morning.night</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>morning.night</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>night</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="n"/>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
       <c r="I2" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="J2" s="39" t="n"/>
-      <c r="K2" s="41" t="n">
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="39" t="n"/>
-      <c r="M2" s="41" t="inlineStr">
+      <c r="L2" s="5" t="n"/>
+      <c r="M2" s="37" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
+      <c r="N2" s="5" t="n"/>
+      <c r="O2" s="45" t="n"/>
+      <c r="P2" s="5" t="n"/>
+      <c r="Q2" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5" t="n"/>
     </row>
     <row r="3" ht="21.45" customHeight="1">
       <c r="A3" s="19" t="inlineStr">
         <is>
-          <t>אור</t>
+          <t>רוני</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -1027,47 +1059,50 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>morning.night</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>noon</t>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>morning.night</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>noon.night</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>noon.night</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="n"/>
       <c r="I3" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="42" t="n">
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="42" t="inlineStr">
+      <c r="L3" s="5" t="n"/>
+      <c r="M3" s="38" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="45" t="n"/>
+      <c r="P3" s="5" t="n"/>
+      <c r="Q3" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5" t="n"/>
     </row>
     <row r="4" ht="20.7" customHeight="1">
       <c r="A4" s="21" t="inlineStr">
@@ -1113,16 +1148,23 @@
       <c r="I4" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="J4" s="39" t="n"/>
-      <c r="K4" s="43" t="n">
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="39" t="n"/>
-      <c r="M4" s="43" t="inlineStr">
+      <c r="L4" s="5" t="n"/>
+      <c r="M4" s="39" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
+      <c r="N4" s="5" t="n"/>
+      <c r="O4" s="45" t="n"/>
+      <c r="P4" s="5" t="n"/>
+      <c r="Q4" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5" t="n"/>
     </row>
     <row r="5" ht="19.2" customHeight="1">
       <c r="A5" s="23" t="inlineStr">
@@ -1168,16 +1210,23 @@
       <c r="I5" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="39" t="n"/>
-      <c r="K5" s="44" t="n">
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="L5" s="39" t="n"/>
-      <c r="M5" s="44" t="inlineStr">
+      <c r="L5" s="5" t="n"/>
+      <c r="M5" s="40" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
+      <c r="N5" s="5" t="n"/>
+      <c r="O5" s="45" t="n"/>
+      <c r="P5" s="5" t="n"/>
+      <c r="Q5" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5" t="n"/>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="25" t="inlineStr">
@@ -1215,16 +1264,23 @@
       <c r="I6" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="J6" s="39" t="n"/>
-      <c r="K6" s="45" t="n">
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="39" t="n"/>
-      <c r="M6" s="45" t="inlineStr">
+      <c r="L6" s="5" t="n"/>
+      <c r="M6" s="41" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
+      <c r="N6" s="5" t="n"/>
+      <c r="O6" s="45" t="n"/>
+      <c r="P6" s="5" t="n"/>
+      <c r="Q6" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5" t="n"/>
     </row>
     <row r="7" ht="19.95" customHeight="1">
       <c r="A7" s="27" t="inlineStr">
@@ -1270,16 +1326,23 @@
       <c r="I7" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="J7" s="39" t="n"/>
-      <c r="K7" s="46" t="n">
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="39" t="n"/>
-      <c r="M7" s="46" t="inlineStr">
+      <c r="L7" s="5" t="n"/>
+      <c r="M7" s="42" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
+      <c r="N7" s="5" t="n"/>
+      <c r="O7" s="45" t="n"/>
+      <c r="P7" s="5" t="n"/>
+      <c r="Q7" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5" t="n"/>
     </row>
     <row r="8" ht="18.45" customHeight="1" thickBot="1">
       <c r="A8" s="29" t="inlineStr">
@@ -1325,16 +1388,23 @@
       <c r="I8" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="J8" s="39" t="n"/>
-      <c r="K8" s="47" t="n">
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="39" t="n"/>
-      <c r="M8" s="47" t="inlineStr">
+      <c r="L8" s="5" t="n"/>
+      <c r="M8" s="43" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
+      <c r="N8" s="5" t="n"/>
+      <c r="O8" s="45" t="n"/>
+      <c r="P8" s="5" t="n"/>
+      <c r="Q8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="inlineStr">
@@ -1380,30 +1450,43 @@
       <c r="I9" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="39" t="n"/>
-      <c r="K9" s="48" t="n">
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="44" t="n">
         <v>6</v>
       </c>
-      <c r="L9" s="39" t="n"/>
-      <c r="M9" s="48" t="inlineStr">
+      <c r="L9" s="5" t="n"/>
+      <c r="M9" s="44" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
+      <c r="N9" s="5" t="n"/>
+      <c r="O9" s="44" t="n"/>
+      <c r="P9" s="5" t="n"/>
+      <c r="Q9" s="44" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="39" t="n"/>
-      <c r="B10" s="39" t="n"/>
-      <c r="C10" s="39" t="n"/>
-      <c r="D10" s="39" t="n"/>
-      <c r="E10" s="39" t="n"/>
-      <c r="F10" s="39" t="n"/>
-      <c r="G10" s="39" t="n"/>
-      <c r="H10" s="39" t="n"/>
-      <c r="I10" s="39" t="n"/>
-      <c r="J10" s="39" t="n"/>
-      <c r="K10" s="39" t="n"/>
-      <c r="L10" s="39" t="n"/>
+      <c r="A10" s="5" t="n"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="5" t="n"/>
+      <c r="I10" s="5" t="n"/>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="5" t="n"/>
+      <c r="L10" s="5" t="n"/>
+      <c r="M10" s="5" t="n"/>
+      <c r="N10" s="5" t="n"/>
+      <c r="O10" s="5" t="n"/>
+      <c r="P10" s="5" t="n"/>
+      <c r="Q10" s="5" t="n"/>
+      <c r="R10" s="5" t="n"/>
     </row>
     <row r="11" ht="32.7" customHeight="1">
       <c r="A11" s="13" t="inlineStr">
@@ -1432,26 +1515,32 @@
       <c r="H11" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="I11" s="39" t="n"/>
-      <c r="J11" s="39" t="n"/>
-      <c r="K11" s="39" t="n"/>
-      <c r="L11" s="39" t="n"/>
+      <c r="I11" s="5" t="n"/>
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="5" t="n"/>
+      <c r="L11" s="5" t="n"/>
+      <c r="M11" s="5" t="n"/>
+      <c r="N11" s="5" t="n"/>
+      <c r="O11" s="5" t="n"/>
+      <c r="P11" s="5" t="n"/>
+      <c r="Q11" s="5" t="n"/>
+      <c r="R11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="39" t="n"/>
-      <c r="B12" s="39" t="n"/>
-      <c r="C12" s="39" t="n"/>
-      <c r="D12" s="39" t="n"/>
-      <c r="E12" s="39" t="n"/>
-      <c r="F12" s="39" t="n"/>
-      <c r="G12" s="39" t="n"/>
-      <c r="H12" s="39" t="n"/>
-      <c r="I12" s="39" t="n"/>
-      <c r="J12" s="39" t="n"/>
-      <c r="K12" s="39" t="n"/>
-      <c r="L12" s="39" t="n"/>
-      <c r="M12" s="39" t="n"/>
-      <c r="N12" s="39" t="n"/>
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n"/>
+      <c r="I12" s="5" t="n"/>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="5" t="n"/>
+      <c r="L12" s="5" t="n"/>
+      <c r="M12" s="5" t="n"/>
+      <c r="N12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -1459,18 +1548,18 @@
           <t>הערות:</t>
         </is>
       </c>
-      <c r="B13" s="36" t="inlineStr">
+      <c r="B13" s="46" t="inlineStr">
         <is>
           <t>אם מישהו יכול עד שעה מסויימת תרשום בתוך סוגריים מעוגלות למשל- צהריים עד 21 יהיה: (21:00)b</t>
         </is>
       </c>
-      <c r="C13" s="37" t="n"/>
-      <c r="D13" s="37" t="n"/>
-      <c r="E13" s="37" t="n"/>
-      <c r="F13" s="37" t="n"/>
-      <c r="G13" s="37" t="n"/>
-      <c r="H13" s="38" t="n"/>
-      <c r="J13" s="39" t="n"/>
+      <c r="C13" s="47" t="n"/>
+      <c r="D13" s="47" t="n"/>
+      <c r="E13" s="47" t="n"/>
+      <c r="F13" s="47" t="n"/>
+      <c r="G13" s="47" t="n"/>
+      <c r="H13" s="48" t="n"/>
+      <c r="J13" s="5" t="n"/>
       <c r="K13" s="6" t="inlineStr">
         <is>
           <t>מקרא:</t>
@@ -1496,7 +1585,7 @@
       <c r="F14" s="34" t="n"/>
       <c r="G14" s="34" t="n"/>
       <c r="H14" s="34" t="n"/>
-      <c r="J14" s="39" t="n"/>
+      <c r="J14" s="5" t="n"/>
       <c r="K14" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> - רק בוקר</t>
@@ -1508,7 +1597,7 @@
           <t>a</t>
         </is>
       </c>
-      <c r="N14" s="39" t="n"/>
+      <c r="N14" s="5" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="34" t="inlineStr">
@@ -1522,7 +1611,7 @@
       <c r="F15" s="34" t="n"/>
       <c r="G15" s="34" t="n"/>
       <c r="H15" s="34" t="n"/>
-      <c r="J15" s="39" t="n"/>
+      <c r="J15" s="5" t="n"/>
       <c r="K15" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> - רק צהריים</t>
@@ -1534,7 +1623,7 @@
           <t>b</t>
         </is>
       </c>
-      <c r="N15" s="39" t="n"/>
+      <c r="N15" s="5" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="34" t="inlineStr">
@@ -1548,6 +1637,7 @@
       <c r="F16" s="34" t="n"/>
       <c r="G16" s="34" t="n"/>
       <c r="H16" s="34" t="n"/>
+      <c r="J16" s="5" t="n"/>
       <c r="K16" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve"> - רק לילה</t>
@@ -1559,7 +1649,7 @@
           <t>c</t>
         </is>
       </c>
-      <c r="N16" s="39" t="n"/>
+      <c r="N16" s="5" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="34" t="inlineStr">
@@ -1573,6 +1663,7 @@
       <c r="F17" s="34" t="n"/>
       <c r="G17" s="34" t="n"/>
       <c r="H17" s="34" t="n"/>
+      <c r="J17" s="5" t="n"/>
       <c r="K17" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> - פנוי להכל</t>
@@ -1584,9 +1675,10 @@
           <t>f</t>
         </is>
       </c>
-      <c r="N17" s="39" t="n"/>
+      <c r="N17" s="5" t="n"/>
     </row>
     <row r="18">
+      <c r="J18" s="5" t="n"/>
       <c r="K18" s="8" t="inlineStr">
         <is>
           <t>משבצת ריקה - לא יכול בכלל</t>
@@ -1594,41 +1686,45 @@
       </c>
       <c r="L18" s="4" t="n"/>
       <c r="M18" s="11" t="n"/>
-      <c r="N18" s="39" t="n"/>
+      <c r="N18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="K19" s="39" t="n"/>
-      <c r="L19" s="39" t="n"/>
-      <c r="M19" s="39" t="n"/>
-      <c r="N19" s="39" t="n"/>
+      <c r="J19" s="5" t="n"/>
+      <c r="K19" s="5" t="n"/>
+      <c r="L19" s="5" t="n"/>
+      <c r="M19" s="5" t="n"/>
+      <c r="N19" s="5" t="n"/>
     </row>
     <row r="20">
+      <c r="J20" s="5" t="n"/>
       <c r="K20" s="8" t="inlineStr">
         <is>
           <t>כמות אנשים:</t>
         </is>
       </c>
-      <c r="L20" s="39" t="n"/>
+      <c r="L20" s="5" t="n"/>
       <c r="M20" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="N20" s="39" t="n"/>
+      <c r="N20" s="5" t="n"/>
     </row>
     <row r="21">
+      <c r="J21" s="5" t="n"/>
       <c r="K21" s="8" t="inlineStr">
         <is>
           <t>כמות לילות לכל עובד:</t>
         </is>
       </c>
-      <c r="L21" s="39" t="n"/>
+      <c r="L21" s="5" t="n"/>
       <c r="M21" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N21" s="39" t="n"/>
+      <c r="N21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="L22" s="39" t="n"/>
-      <c r="N22" s="39" t="n"/>
+      <c r="J22" s="5" t="n"/>
+      <c r="L22" s="5" t="n"/>
+      <c r="N22" s="5" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/automate/תבנית זמינות.xlsx
+++ b/automate/תבנית זמינות.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1080" yWindow="1080" windowWidth="20868" windowHeight="10380" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="468" yWindow="1380" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -889,8 +889,8 @@
   </sheetPr>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -987,42 +987,42 @@
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="17" t="inlineStr">
         <is>
-          <t>אור</t>
+          <t>זיו</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>noon</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>noon</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>noon</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>noon.night</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>morning.noon.night</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>night</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>noon</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>morning.night</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>morning</t>
-        </is>
-      </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>morning.noon</t>
         </is>
       </c>
       <c r="I2" s="18" t="n">
@@ -1042,47 +1042,47 @@
       <c r="O2" s="45" t="n"/>
       <c r="P2" s="5" t="n"/>
       <c r="Q2" s="37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" s="5" t="n"/>
     </row>
     <row r="3" ht="21.45" customHeight="1">
       <c r="A3" s="19" t="inlineStr">
         <is>
-          <t>רוני</t>
+          <t>יניב</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
           <t>morning.noon</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>morning.night</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>morning.noon</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>morning.night</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>night</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="n"/>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>morning.noon</t>
+        </is>
+      </c>
       <c r="I3" s="20" t="n">
         <v>6</v>
       </c>
@@ -1100,14 +1100,14 @@
       <c r="O3" s="45" t="n"/>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" s="5" t="n"/>
     </row>
     <row r="4" ht="20.7" customHeight="1">
       <c r="A4" s="21" t="inlineStr">
         <is>
-          <t>אמור</t>
+          <t>רוני</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -1117,36 +1117,36 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
           <t>morning.noon</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="H4" s="1" t="inlineStr">
         <is>
           <t>morning.noon</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
       <c r="I4" s="22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J4" s="5" t="n"/>
       <c r="K4" s="39" t="n">
@@ -1162,7 +1162,7 @@
       <c r="O4" s="45" t="n"/>
       <c r="P4" s="5" t="n"/>
       <c r="Q4" s="39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R4" s="5" t="n"/>
     </row>
@@ -1174,34 +1174,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>night</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>noon.night</t>
-        </is>
-      </c>
+          <t>morning.noon</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n"/>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>morning.night</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
           <t>morning</t>
         </is>
       </c>
+      <c r="G5" s="1" t="n"/>
       <c r="H5" s="1" t="inlineStr">
         <is>
           <t>night</t>
@@ -1221,44 +1213,48 @@
         </is>
       </c>
       <c r="N5" s="5" t="n"/>
-      <c r="O5" s="45" t="n"/>
+      <c r="O5" s="45" t="inlineStr">
+        <is>
+          <t>כמה שפחות לילות יעזור מאוד לאישה.</t>
+        </is>
+      </c>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5" s="5" t="n"/>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="25" t="inlineStr">
         <is>
-          <t>יניב</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>morning</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
+          <t>אמור</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>morning.night</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>morning.noon.night</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
         <is>
           <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="n"/>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n"/>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>noon.night</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="I6" s="26" t="n">
@@ -1271,58 +1267,34 @@
       <c r="L6" s="5" t="n"/>
       <c r="M6" s="41" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="N6" s="5" t="n"/>
       <c r="O6" s="45" t="n"/>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6" s="5" t="n"/>
     </row>
     <row r="7" ht="19.95" customHeight="1">
       <c r="A7" s="27" t="inlineStr">
         <is>
-          <t>זיו</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>noon</t>
-        </is>
-      </c>
+          <t>אוראל</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>noon.night</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
           <t>morning</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
       <c r="I7" s="28" t="n">
         <v>6</v>
       </c>
@@ -1340,14 +1312,14 @@
       <c r="O7" s="45" t="n"/>
       <c r="P7" s="5" t="n"/>
       <c r="Q7" s="42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" s="5" t="n"/>
     </row>
     <row r="8" ht="18.45" customHeight="1" thickBot="1">
       <c r="A8" s="29" t="inlineStr">
         <is>
-          <t>אוראל</t>
+          <t>אור</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -1357,7 +1329,7 @@
       </c>
       <c r="C8" s="12" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
@@ -1367,7 +1339,7 @@
       </c>
       <c r="E8" s="13" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>morning.noon.night</t>
         </is>
       </c>
       <c r="F8" s="13" t="inlineStr">
@@ -1402,7 +1374,7 @@
       <c r="O8" s="45" t="n"/>
       <c r="P8" s="5" t="n"/>
       <c r="Q8" s="43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" s="5" t="n"/>
     </row>

--- a/automate/תבנית זמינות.xlsx
+++ b/automate/תבנית זמינות.xlsx
@@ -987,42 +987,42 @@
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="17" t="inlineStr">
         <is>
-          <t>זיו</t>
+          <t>אור</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>noon</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>noon</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>noon</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>noon.night</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>morning.night</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="I2" s="18" t="n">
@@ -1049,38 +1049,42 @@
     <row r="3" ht="21.45" customHeight="1">
       <c r="A3" s="19" t="inlineStr">
         <is>
-          <t>יניב</t>
+          <t>זיו שהינו</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>b</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n"/>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>morning.night</t>
+          <t>b.c</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>a.c</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>a.b</t>
         </is>
       </c>
       <c r="I3" s="20" t="n">
@@ -1107,42 +1111,38 @@
     <row r="4" ht="20.7" customHeight="1">
       <c r="A4" s="21" t="inlineStr">
         <is>
-          <t>רוני</t>
+          <t>יניב שטיינר</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>c</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n"/>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>a.c</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>a</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>a.b</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>a.b</t>
         </is>
       </c>
       <c r="I4" s="22" t="n">
@@ -1169,34 +1169,42 @@
     <row r="5" ht="19.2" customHeight="1">
       <c r="A5" s="23" t="inlineStr">
         <is>
-          <t>עמית</t>
+          <t>רוני</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="n"/>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>morning.night</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>morning</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="n"/>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>a.b</t>
         </is>
       </c>
       <c r="I5" s="24" t="n">
@@ -1213,11 +1221,7 @@
         </is>
       </c>
       <c r="N5" s="5" t="n"/>
-      <c r="O5" s="45" t="inlineStr">
-        <is>
-          <t>כמה שפחות לילות יעזור מאוד לאישה.</t>
-        </is>
-      </c>
+      <c r="O5" s="45" t="n"/>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="40" t="n">
         <v>2</v>
@@ -1227,34 +1231,34 @@
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="25" t="inlineStr">
         <is>
-          <t>אמור</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
+          <t>עמית בלסן</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n"/>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
+          <t>a.c</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>morning.night</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="n"/>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>morning.noon</t>
+          <t>c</t>
         </is>
       </c>
       <c r="I6" s="26" t="n">
@@ -1271,7 +1275,11 @@
         </is>
       </c>
       <c r="N6" s="5" t="n"/>
-      <c r="O6" s="45" t="n"/>
+      <c r="O6" s="45" t="inlineStr">
+        <is>
+          <t>כמה שפחות לילות יעזור מאוד לאישה.</t>
+        </is>
+      </c>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="41" t="n">
         <v>2</v>
@@ -1281,20 +1289,36 @@
     <row r="7" ht="19.95" customHeight="1">
       <c r="A7" s="27" t="inlineStr">
         <is>
-          <t>אוראל</t>
+          <t>אמור משה</t>
         </is>
       </c>
       <c r="B7" s="1" t="n"/>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>morning</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
-      <c r="G7" s="1" t="n"/>
-      <c r="H7" s="1" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
       <c r="I7" s="28" t="n">
         <v>6</v>
       </c>
@@ -1319,44 +1343,20 @@
     <row r="8" ht="18.45" customHeight="1" thickBot="1">
       <c r="A8" s="29" t="inlineStr">
         <is>
-          <t>אור</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
+          <t>אוראל</t>
+        </is>
+      </c>
+      <c r="B8" s="13" t="n"/>
       <c r="C8" s="12" t="inlineStr">
         <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="D8" s="12" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="E8" s="13" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="F8" s="13" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
-      <c r="G8" s="13" t="inlineStr">
-        <is>
-          <t>morning.noon</t>
-        </is>
-      </c>
-      <c r="H8" s="13" t="inlineStr">
-        <is>
-          <t>morning.noon.night</t>
-        </is>
-      </c>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D8" s="12" t="n"/>
+      <c r="E8" s="13" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="13" t="n"/>
+      <c r="H8" s="13" t="n"/>
       <c r="I8" s="30" t="n">
         <v>6</v>
       </c>

--- a/automate/תבנית זמינות.xlsx
+++ b/automate/תבנית זמינות.xlsx
@@ -1017,7 +1017,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>a.b.c</t>
+          <t>a.b</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -1049,7 +1049,7 @@
     <row r="3" ht="21.45" customHeight="1">
       <c r="A3" s="19" t="inlineStr">
         <is>
-          <t>זיו שהינו</t>
+          <t>זיו</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
     <row r="4" ht="20.7" customHeight="1">
       <c r="A4" s="21" t="inlineStr">
         <is>
-          <t>יניב שטיינר</t>
+          <t>יניב</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -1231,7 +1231,7 @@
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="25" t="inlineStr">
         <is>
-          <t>עמית בלסן</t>
+          <t>עמית</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="7" ht="19.95" customHeight="1">
       <c r="A7" s="27" t="inlineStr">
         <is>
-          <t>אמור משה</t>
+          <t>אמור</t>
         </is>
       </c>
       <c r="B7" s="1" t="n"/>

--- a/automate/תבנית זמינות.xlsx
+++ b/automate/תבנית זמינות.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="468" yWindow="1380" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11235" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -889,34 +889,34 @@
   </sheetPr>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col width="14.109375" customWidth="1" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" min="2" max="2"/>
+    <col width="14.140625" customWidth="1" min="1" max="1"/>
+    <col width="12.7109375" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="11.109375" customWidth="1" min="4" max="4"/>
-    <col width="11.6640625" customWidth="1" min="5" max="5"/>
-    <col width="12.44140625" customWidth="1" min="6" max="6"/>
-    <col width="11.33203125" customWidth="1" min="7" max="7"/>
-    <col width="14.44140625" customWidth="1" min="9" max="9"/>
-    <col width="3.109375" customWidth="1" min="10" max="10"/>
-    <col width="26.33203125" customWidth="1" min="11" max="11"/>
+    <col width="11.140625" customWidth="1" min="4" max="4"/>
+    <col width="11.7109375" customWidth="1" min="5" max="5"/>
+    <col width="12.42578125" customWidth="1" min="6" max="6"/>
+    <col width="11.28515625" customWidth="1" min="7" max="7"/>
+    <col width="14.42578125" customWidth="1" min="9" max="9"/>
+    <col width="3.140625" customWidth="1" min="10" max="10"/>
+    <col width="26.28515625" customWidth="1" min="11" max="11"/>
     <col width="3" customWidth="1" min="12" max="12"/>
-    <col width="24.6640625" customWidth="1" min="13" max="13"/>
-    <col width="2.44140625" customWidth="1" min="14" max="14"/>
-    <col width="16.6640625" customWidth="1" min="15" max="15"/>
-    <col width="2.5546875" customWidth="1" min="16" max="16"/>
-    <col width="16.33203125" customWidth="1" min="17" max="17"/>
-    <col width="2.109375" customWidth="1" min="18" max="18"/>
-    <col width="12.77734375" customWidth="1" min="19" max="19"/>
-    <col width="2.109375" customWidth="1" min="20" max="20"/>
+    <col width="24.7109375" customWidth="1" min="13" max="13"/>
+    <col width="2.42578125" customWidth="1" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" min="15" max="15"/>
+    <col width="2.5703125" customWidth="1" min="16" max="16"/>
+    <col width="16.28515625" customWidth="1" min="17" max="17"/>
+    <col width="2.140625" customWidth="1" min="18" max="18"/>
+    <col width="12.7109375" customWidth="1" min="19" max="19"/>
+    <col width="2.140625" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.7" customHeight="1">
+    <row r="1" ht="14.65" customHeight="1">
       <c r="A1" s="14" t="n"/>
       <c r="B1" s="15" t="inlineStr">
         <is>
@@ -987,44 +987,36 @@
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="17" t="inlineStr">
         <is>
-          <t>אור</t>
+          <t>יניב שטיינר</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>a.b.c</t>
+          <t>b.c</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>a.b.c</t>
+          <t>a.b</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>a.b.c</t>
+          <t>a</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>a.b</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="n"/>
       <c r="I2" s="18" t="n">
         <v>6</v>
       </c>
@@ -1039,34 +1031,26 @@
         </is>
       </c>
       <c r="N2" s="5" t="n"/>
-      <c r="O2" s="45" t="n"/>
+      <c r="O2" s="45" t="inlineStr">
+        <is>
+          <t>תקופת מבחנים ובשבת נמצא בשבת חתן</t>
+        </is>
+      </c>
       <c r="P2" s="5" t="n"/>
       <c r="Q2" s="37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="5" t="n"/>
     </row>
-    <row r="3" ht="21.45" customHeight="1">
+    <row r="3" ht="21.4" customHeight="1">
       <c r="A3" s="19" t="inlineStr">
         <is>
-          <t>זיו</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+          <t xml:space="preserve">אוראל </t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="1" t="n"/>
       <c r="E3" s="1" t="inlineStr">
         <is>
           <t>b.c</t>
@@ -1079,12 +1063,12 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>a.c</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>a.b</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="I3" s="20" t="n">
@@ -1104,49 +1088,53 @@
       <c r="O3" s="45" t="n"/>
       <c r="P3" s="5" t="n"/>
       <c r="Q3" s="38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R3" s="5" t="n"/>
     </row>
-    <row r="4" ht="20.7" customHeight="1">
+    <row r="4" ht="20.65" customHeight="1">
       <c r="A4" s="21" t="inlineStr">
         <is>
-          <t>יניב</t>
+          <t>אמור טלבי</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
           <t>c</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>a.b</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>a.c</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>a.b</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>a.b</t>
-        </is>
-      </c>
       <c r="I4" s="22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J4" s="5" t="n"/>
       <c r="K4" s="39" t="n">
@@ -1159,54 +1147,42 @@
         </is>
       </c>
       <c r="N4" s="5" t="n"/>
-      <c r="O4" s="45" t="n"/>
+      <c r="O4" s="45" t="inlineStr">
+        <is>
+          <t>מי שלא מוחא כפיים..</t>
+        </is>
+      </c>
       <c r="P4" s="5" t="n"/>
       <c r="Q4" s="39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4" s="5" t="n"/>
     </row>
-    <row r="5" ht="19.2" customHeight="1">
+    <row r="5" ht="19.15" customHeight="1">
       <c r="A5" s="23" t="inlineStr">
         <is>
-          <t>רוני</t>
+          <t>עמית בלסן</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n"/>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>a.b</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>a.b</t>
-        </is>
-      </c>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
       <c r="I5" s="24" t="n">
         <v>6</v>
       </c>
@@ -1224,27 +1200,31 @@
       <c r="O5" s="45" t="n"/>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R5" s="5" t="n"/>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="25" t="inlineStr">
         <is>
-          <t>עמית</t>
+          <t>אור</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>a.b</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="n"/>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
           <t>a.c</t>
@@ -1252,13 +1232,17 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="n"/>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="I6" s="26" t="n">
@@ -1271,42 +1255,42 @@
       <c r="L6" s="5" t="n"/>
       <c r="M6" s="41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="N6" s="5" t="n"/>
-      <c r="O6" s="45" t="inlineStr">
-        <is>
-          <t>כמה שפחות לילות יעזור מאוד לאישה.</t>
-        </is>
-      </c>
+      <c r="O6" s="45" t="n"/>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R6" s="5" t="n"/>
     </row>
-    <row r="7" ht="19.95" customHeight="1">
+    <row r="7" ht="19.9" customHeight="1">
       <c r="A7" s="27" t="inlineStr">
         <is>
-          <t>אמור</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
+          <t xml:space="preserve">זיו שהינו </t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>a.b.c</t>
+          <t>b.c</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>a.c</t>
+          <t>a.b.c</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -1336,27 +1320,47 @@
       <c r="O7" s="45" t="n"/>
       <c r="P7" s="5" t="n"/>
       <c r="Q7" s="42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7" s="5" t="n"/>
     </row>
-    <row r="8" ht="18.45" customHeight="1" thickBot="1">
+    <row r="8" ht="18.4" customHeight="1" thickBot="1">
       <c r="A8" s="29" t="inlineStr">
         <is>
-          <t>אוראל</t>
+          <t>רוני</t>
         </is>
       </c>
       <c r="B8" s="13" t="n"/>
       <c r="C8" s="12" t="inlineStr">
         <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="E8" s="13" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="F8" s="13" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="G8" s="13" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="H8" s="13" t="inlineStr">
+        <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D8" s="12" t="n"/>
-      <c r="E8" s="13" t="n"/>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="13" t="n"/>
-      <c r="H8" s="13" t="n"/>
       <c r="I8" s="30" t="n">
         <v>6</v>
       </c>
@@ -1374,7 +1378,7 @@
       <c r="O8" s="45" t="n"/>
       <c r="P8" s="5" t="n"/>
       <c r="Q8" s="43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" s="5" t="n"/>
     </row>
@@ -1460,7 +1464,7 @@
       <c r="Q10" s="5" t="n"/>
       <c r="R10" s="5" t="n"/>
     </row>
-    <row r="11" ht="32.7" customHeight="1">
+    <row r="11" ht="32.65" customHeight="1">
       <c r="A11" s="13" t="inlineStr">
         <is>
           <t>כמות משמרות בכל יום</t>

--- a/automate/תבנית זמינות.xlsx
+++ b/automate/תבנית זמינות.xlsx
@@ -985,37 +985,13 @@
       <c r="R1" s="5" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="17" t="inlineStr">
-        <is>
-          <t>יניב שטיינר</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>b.c</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
+      <c r="A2" s="17" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="2" t="n"/>
       <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>a.b</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="18" t="n">
         <v>6</v>
@@ -1031,11 +1007,7 @@
         </is>
       </c>
       <c r="N2" s="5" t="n"/>
-      <c r="O2" s="45" t="inlineStr">
-        <is>
-          <t>תקופת מבחנים ובשבת נמצא בשבת חתן</t>
-        </is>
-      </c>
+      <c r="O2" s="45" t="n"/>
       <c r="P2" s="5" t="n"/>
       <c r="Q2" s="37" t="n">
         <v>1</v>
@@ -1043,34 +1015,14 @@
       <c r="R2" s="5" t="n"/>
     </row>
     <row r="3" ht="21.4" customHeight="1">
-      <c r="A3" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">אוראל </t>
-        </is>
-      </c>
+      <c r="A3" s="19" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="1" t="n"/>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>b.c</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
       <c r="I3" s="20" t="n">
         <v>6</v>
       </c>
@@ -1093,46 +1045,14 @@
       <c r="R3" s="5" t="n"/>
     </row>
     <row r="4" ht="20.65" customHeight="1">
-      <c r="A4" s="21" t="inlineStr">
-        <is>
-          <t>אמור טלבי</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>b.c</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
+      <c r="A4" s="21" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
       <c r="I4" s="22" t="n">
         <v>6</v>
       </c>
@@ -1147,11 +1067,7 @@
         </is>
       </c>
       <c r="N4" s="5" t="n"/>
-      <c r="O4" s="45" t="inlineStr">
-        <is>
-          <t>מי שלא מוחא כפיים..</t>
-        </is>
-      </c>
+      <c r="O4" s="45" t="n"/>
       <c r="P4" s="5" t="n"/>
       <c r="Q4" s="39" t="n">
         <v>1</v>
@@ -1159,28 +1075,12 @@
       <c r="R4" s="5" t="n"/>
     </row>
     <row r="5" ht="19.15" customHeight="1">
-      <c r="A5" s="23" t="inlineStr">
-        <is>
-          <t>עמית בלסן</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="A5" s="23" t="n"/>
+      <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="D5" s="1" t="n"/>
       <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>b.c</t>
-        </is>
-      </c>
+      <c r="F5" s="1" t="n"/>
       <c r="G5" s="1" t="n"/>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="24" t="n">
@@ -1205,46 +1105,14 @@
       <c r="R5" s="5" t="n"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="25" t="inlineStr">
-        <is>
-          <t>אור</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>a.c</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
+      <c r="A6" s="25" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
       <c r="I6" s="26" t="n">
         <v>6</v>
       </c>
@@ -1267,42 +1135,14 @@
       <c r="R6" s="5" t="n"/>
     </row>
     <row r="7" ht="19.9" customHeight="1">
-      <c r="A7" s="27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">זיו שהינו </t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
+      <c r="A7" s="27" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="2" t="n"/>
       <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>b.c</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>a.b</t>
-        </is>
-      </c>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
       <c r="I7" s="28" t="n">
         <v>6</v>
       </c>
@@ -1325,42 +1165,14 @@
       <c r="R7" s="5" t="n"/>
     </row>
     <row r="8" ht="18.4" customHeight="1" thickBot="1">
-      <c r="A8" s="29" t="inlineStr">
-        <is>
-          <t>רוני</t>
-        </is>
-      </c>
+      <c r="A8" s="29" t="n"/>
       <c r="B8" s="13" t="n"/>
-      <c r="C8" s="12" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="D8" s="12" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="E8" s="13" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="F8" s="13" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="G8" s="13" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="H8" s="13" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
+      <c r="C8" s="12" t="n"/>
+      <c r="D8" s="12" t="n"/>
+      <c r="E8" s="13" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="13" t="n"/>
+      <c r="H8" s="13" t="n"/>
       <c r="I8" s="30" t="n">
         <v>6</v>
       </c>

--- a/automate/תבנית זמינות.xlsx
+++ b/automate/תבנית זמינות.xlsx
@@ -985,14 +985,38 @@
       <c r="R1" s="5" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="17" t="n"/>
-      <c r="B2" s="1" t="n"/>
+      <c r="A2" s="17" t="inlineStr">
+        <is>
+          <t>Worker 1</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="C2" s="2" t="n"/>
-      <c r="D2" s="1" t="n"/>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="E2" s="1" t="n"/>
-      <c r="F2" s="1" t="n"/>
-      <c r="G2" s="1" t="n"/>
-      <c r="H2" s="1" t="n"/>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
       <c r="I2" s="18" t="n">
         <v>6</v>
       </c>
@@ -1015,14 +1039,46 @@
       <c r="R2" s="5" t="n"/>
     </row>
     <row r="3" ht="21.4" customHeight="1">
-      <c r="A3" s="19" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="1" t="n"/>
-      <c r="E3" s="1" t="n"/>
-      <c r="F3" s="1" t="n"/>
-      <c r="G3" s="1" t="n"/>
-      <c r="H3" s="1" t="n"/>
+      <c r="A3" s="19" t="inlineStr">
+        <is>
+          <t>Worker 2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
       <c r="I3" s="20" t="n">
         <v>6</v>
       </c>
@@ -1045,14 +1101,42 @@
       <c r="R3" s="5" t="n"/>
     </row>
     <row r="4" ht="20.65" customHeight="1">
-      <c r="A4" s="21" t="n"/>
-      <c r="B4" s="1" t="n"/>
+      <c r="A4" s="21" t="inlineStr">
+        <is>
+          <t>Worker 3</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="C4" s="1" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="1" t="n"/>
-      <c r="G4" s="1" t="n"/>
-      <c r="H4" s="1" t="n"/>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
       <c r="I4" s="22" t="n">
         <v>6</v>
       </c>
@@ -1067,7 +1151,11 @@
         </is>
       </c>
       <c r="N4" s="5" t="n"/>
-      <c r="O4" s="45" t="n"/>
+      <c r="O4" s="45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">מבחנים </t>
+        </is>
+      </c>
       <c r="P4" s="5" t="n"/>
       <c r="Q4" s="39" t="n">
         <v>1</v>
@@ -1075,14 +1163,46 @@
       <c r="R4" s="5" t="n"/>
     </row>
     <row r="5" ht="19.15" customHeight="1">
-      <c r="A5" s="23" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
-      <c r="G5" s="1" t="n"/>
-      <c r="H5" s="1" t="n"/>
+      <c r="A5" s="23" t="inlineStr">
+        <is>
+          <t>Worker 4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
       <c r="I5" s="24" t="n">
         <v>6</v>
       </c>
@@ -1105,12 +1225,36 @@
       <c r="R5" s="5" t="n"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="25" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="1" t="n"/>
+      <c r="A6" s="25" t="inlineStr">
+        <is>
+          <t>Worker 7</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
       <c r="G6" s="1" t="n"/>
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="26" t="n">
@@ -1135,14 +1279,42 @@
       <c r="R6" s="5" t="n"/>
     </row>
     <row r="7" ht="19.9" customHeight="1">
-      <c r="A7" s="27" t="n"/>
+      <c r="A7" s="27" t="inlineStr">
+        <is>
+          <t>Worker 6</t>
+        </is>
+      </c>
       <c r="B7" s="1" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
-      <c r="G7" s="1" t="n"/>
-      <c r="H7" s="1" t="n"/>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="I7" s="28" t="n">
         <v>6</v>
       </c>
@@ -1165,14 +1337,46 @@
       <c r="R7" s="5" t="n"/>
     </row>
     <row r="8" ht="18.4" customHeight="1" thickBot="1">
-      <c r="A8" s="29" t="n"/>
-      <c r="B8" s="13" t="n"/>
-      <c r="C8" s="12" t="n"/>
-      <c r="D8" s="12" t="n"/>
-      <c r="E8" s="13" t="n"/>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="13" t="n"/>
-      <c r="H8" s="13" t="n"/>
+      <c r="A8" s="29" t="inlineStr">
+        <is>
+          <t>Worker 5</t>
+        </is>
+      </c>
+      <c r="B8" s="13" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="E8" s="13" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="F8" s="13" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="G8" s="13" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="H8" s="13" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
       <c r="I8" s="30" t="n">
         <v>6</v>
       </c>

--- a/automate/תבנית זמינות.xlsx
+++ b/automate/תבנית זמינות.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11235" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -71,19 +71,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF469626"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -95,31 +83,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF09A3A7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,8 +105,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF00FF"/>
+        <bgColor rgb="00FF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FFFF"/>
+        <bgColor rgb="0000FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00008080"/>
+        <bgColor rgb="00008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8080"/>
+        <bgColor rgb="00FF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00808000"/>
+        <bgColor rgb="00808000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -301,60 +301,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -402,26 +352,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -429,120 +359,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="13" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,121 +818,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col width="14.140625" customWidth="1" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" min="2" max="2"/>
+    <col width="14.109375" customWidth="1" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="11.140625" customWidth="1" min="4" max="4"/>
-    <col width="11.7109375" customWidth="1" min="5" max="5"/>
-    <col width="12.42578125" customWidth="1" min="6" max="6"/>
-    <col width="11.28515625" customWidth="1" min="7" max="7"/>
-    <col width="14.42578125" customWidth="1" min="9" max="9"/>
-    <col width="3.140625" customWidth="1" min="10" max="10"/>
-    <col width="26.28515625" customWidth="1" min="11" max="11"/>
+    <col width="11.109375" customWidth="1" min="4" max="4"/>
+    <col width="11.6640625" customWidth="1" min="5" max="5"/>
+    <col width="12.44140625" customWidth="1" min="6" max="6"/>
+    <col width="11.33203125" customWidth="1" min="7" max="7"/>
+    <col width="14.44140625" customWidth="1" min="9" max="9"/>
+    <col width="3.109375" customWidth="1" min="10" max="10"/>
+    <col width="26.33203125" customWidth="1" min="11" max="11"/>
     <col width="3" customWidth="1" min="12" max="12"/>
-    <col width="24.7109375" customWidth="1" min="13" max="13"/>
-    <col width="2.42578125" customWidth="1" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" min="15" max="15"/>
-    <col width="2.5703125" customWidth="1" min="16" max="16"/>
-    <col width="16.28515625" customWidth="1" min="17" max="17"/>
-    <col width="2.140625" customWidth="1" min="18" max="18"/>
-    <col width="12.7109375" customWidth="1" min="19" max="19"/>
-    <col width="2.140625" customWidth="1" min="20" max="20"/>
+    <col width="24.6640625" customWidth="1" min="13" max="13"/>
+    <col width="2.44140625" customWidth="1" min="14" max="14"/>
+    <col width="16.6640625" customWidth="1" min="15" max="15"/>
+    <col width="2.5546875" customWidth="1" min="16" max="16"/>
+    <col width="16.33203125" customWidth="1" min="17" max="17"/>
+    <col width="2.109375" customWidth="1" min="18" max="18"/>
+    <col width="12.6640625" customWidth="1" min="19" max="19"/>
+    <col width="2.109375" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.65" customHeight="1">
-      <c r="A1" s="14" t="n"/>
-      <c r="B1" s="15" t="inlineStr">
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" s="13" t="n"/>
+      <c r="B1" s="14" t="inlineStr">
         <is>
           <t>א</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>ב</t>
         </is>
       </c>
-      <c r="D1" s="15" t="inlineStr">
+      <c r="D1" s="14" t="inlineStr">
         <is>
           <t>ג</t>
         </is>
       </c>
-      <c r="E1" s="15" t="inlineStr">
+      <c r="E1" s="14" t="inlineStr">
         <is>
           <t>ד</t>
         </is>
       </c>
-      <c r="F1" s="15" t="inlineStr">
+      <c r="F1" s="14" t="inlineStr">
         <is>
           <t>ה</t>
         </is>
       </c>
-      <c r="G1" s="15" t="inlineStr">
+      <c r="G1" s="14" t="inlineStr">
         <is>
           <t>ו</t>
         </is>
       </c>
-      <c r="H1" s="15" t="inlineStr">
+      <c r="H1" s="14" t="inlineStr">
         <is>
           <t>ש</t>
         </is>
       </c>
-      <c r="I1" s="16" t="inlineStr">
+      <c r="I1" s="15" t="inlineStr">
         <is>
           <t>כמות משמרות:</t>
         </is>
       </c>
       <c r="J1" s="5" t="n"/>
-      <c r="K1" s="36" t="inlineStr">
+      <c r="K1" s="23" t="inlineStr">
         <is>
           <t>כמות לילות:</t>
         </is>
       </c>
       <c r="L1" s="5" t="n"/>
-      <c r="M1" s="36" t="inlineStr">
+      <c r="M1" s="23" t="inlineStr">
         <is>
           <t>העדפה ללילות רצופים Y/N:</t>
         </is>
       </c>
       <c r="N1" s="5" t="n"/>
-      <c r="O1" s="36" t="inlineStr">
+      <c r="O1" s="23" t="inlineStr">
         <is>
           <t>הערות:</t>
         </is>
       </c>
       <c r="P1" s="5" t="n"/>
-      <c r="Q1" s="36" t="inlineStr">
+      <c r="Q1" s="23" t="inlineStr">
         <is>
           <t>כמות 8-8:</t>
         </is>
       </c>
       <c r="R1" s="5" t="n"/>
     </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="17" t="inlineStr">
-        <is>
-          <t>Worker 1</t>
+    <row r="2" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="16" t="inlineStr">
+        <is>
+          <t>אוראל</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n"/>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="n"/>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>a</t>
@@ -1017,247 +956,235 @@
           <t>a.b</t>
         </is>
       </c>
-      <c r="I2" s="18" t="n">
+      <c r="I2" s="17" t="n">
         <v>6</v>
       </c>
       <c r="J2" s="5" t="n"/>
-      <c r="K2" s="37" t="n">
+      <c r="K2" s="24" t="n">
         <v>2</v>
       </c>
       <c r="L2" s="5" t="n"/>
-      <c r="M2" s="37" t="inlineStr">
+      <c r="M2" s="24" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="N2" s="5" t="n"/>
-      <c r="O2" s="45" t="n"/>
+      <c r="O2" s="26" t="n"/>
       <c r="P2" s="5" t="n"/>
-      <c r="Q2" s="37" t="n">
+      <c r="Q2" s="24" t="n">
         <v>1</v>
       </c>
       <c r="R2" s="5" t="n"/>
     </row>
-    <row r="3" ht="21.4" customHeight="1">
-      <c r="A3" s="19" t="inlineStr">
-        <is>
-          <t>Worker 2</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
+    <row r="3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="27" t="inlineStr">
+        <is>
+          <t>זיו שהינו</t>
+        </is>
+      </c>
+      <c r="B3" s="28" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C3" s="29" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="D3" s="28" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E3" s="28" t="inlineStr">
         <is>
           <t>a.b.c</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="F3" s="28" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="G3" s="28" t="inlineStr">
         <is>
           <t>a.b.c</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="H3" s="28" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="I3" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5" t="n"/>
+      <c r="M3" s="31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="32" t="n"/>
+      <c r="P3" s="5" t="n"/>
+      <c r="Q3" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="33" t="inlineStr">
+        <is>
+          <t>רוני</t>
+        </is>
+      </c>
+      <c r="B4" s="28" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C4" s="29" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E4" s="28" t="inlineStr">
         <is>
           <t>a.b.c</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="F4" s="28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G4" s="28" t="inlineStr">
         <is>
           <t>a.b.c</t>
         </is>
       </c>
-      <c r="I3" s="20" t="n">
+      <c r="H4" s="28" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="I4" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="n"/>
-      <c r="K3" s="38" t="n">
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="5" t="n"/>
-      <c r="M3" s="38" t="inlineStr">
+      <c r="L4" s="5" t="n"/>
+      <c r="M4" s="35" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="N3" s="5" t="n"/>
-      <c r="O3" s="45" t="n"/>
-      <c r="P3" s="5" t="n"/>
-      <c r="Q3" s="38" t="n">
+      <c r="N4" s="5" t="n"/>
+      <c r="O4" s="32" t="n"/>
+      <c r="P4" s="5" t="n"/>
+      <c r="Q4" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="R3" s="5" t="n"/>
-    </row>
-    <row r="4" ht="20.65" customHeight="1">
-      <c r="A4" s="21" t="inlineStr">
-        <is>
-          <t>Worker 3</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="R4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="32.7" customHeight="1">
+      <c r="A5" s="36" t="inlineStr">
+        <is>
+          <t>יניב שטיינר</t>
+        </is>
+      </c>
+      <c r="B5" s="28" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="C5" s="29" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D5" s="28" t="n"/>
+      <c r="E5" s="28" t="n"/>
+      <c r="F5" s="28" t="n"/>
+      <c r="G5" s="28" t="n"/>
+      <c r="H5" s="28" t="n"/>
+      <c r="I5" s="37" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5" t="n"/>
+      <c r="M5" s="38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N5" s="5" t="n"/>
+      <c r="O5" s="32" t="inlineStr">
+        <is>
+          <t>חתונה</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="n"/>
+      <c r="Q5" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="39" t="inlineStr">
+        <is>
+          <t>אור</t>
+        </is>
+      </c>
+      <c r="B6" s="28" t="inlineStr">
         <is>
           <t>a.b.c</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>a.b</t>
-        </is>
-      </c>
-      <c r="I4" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5" t="n"/>
-      <c r="M4" s="39" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="n"/>
-      <c r="O4" s="45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">מבחנים </t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="n"/>
-      <c r="Q4" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="19.15" customHeight="1">
-      <c r="A5" s="23" t="inlineStr">
-        <is>
-          <t>Worker 4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="C6" s="29" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="D6" s="28" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="E6" s="28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F6" s="28" t="n"/>
+      <c r="G6" s="28" t="inlineStr">
         <is>
           <t>b.c</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>b.c</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="I5" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="40" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N5" s="5" t="n"/>
-      <c r="O5" s="45" t="n"/>
-      <c r="P5" s="5" t="n"/>
-      <c r="Q5" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="25" t="inlineStr">
-        <is>
-          <t>Worker 7</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="H6" s="28" t="inlineStr">
         <is>
           <t>a.c</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>a.c</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="n"/>
-      <c r="H6" s="1" t="n"/>
-      <c r="I6" s="26" t="n">
+      <c r="I6" s="40" t="n">
         <v>6</v>
       </c>
       <c r="J6" s="5" t="n"/>
@@ -1271,242 +1198,272 @@
         </is>
       </c>
       <c r="N6" s="5" t="n"/>
-      <c r="O6" s="45" t="n"/>
+      <c r="O6" s="32" t="inlineStr">
+        <is>
+          <t>חתונה ברביעי</t>
+        </is>
+      </c>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="41" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="5" t="n"/>
     </row>
-    <row r="7" ht="19.9" customHeight="1">
-      <c r="A7" s="27" t="inlineStr">
-        <is>
-          <t>Worker 6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="2" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="42" t="inlineStr">
+        <is>
+          <t>שבת</t>
+        </is>
+      </c>
+      <c r="B7" s="28" t="inlineStr">
         <is>
           <t>a.b.c</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="C7" s="29" t="inlineStr">
         <is>
           <t>a.b.c</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="D7" s="28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E7" s="28" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="F7" s="28" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="G7" s="28" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="H7" s="28" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="I7" s="43" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="5" t="n"/>
+      <c r="M7" s="44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N7" s="5" t="n"/>
+      <c r="O7" s="32" t="inlineStr">
+        <is>
+          <t>עד 4 משמרות לבינתיים 🫡</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="n"/>
+      <c r="Q7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="45" t="inlineStr">
+        <is>
+          <t>עמית בלסן</t>
+        </is>
+      </c>
+      <c r="B8" s="28" t="n"/>
+      <c r="C8" s="29" t="n"/>
+      <c r="D8" s="28" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="E8" s="28" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="F8" s="28" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="G8" s="28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H8" s="28" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="I8" s="46" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5" t="n"/>
+      <c r="M8" s="47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="N8" s="5" t="n"/>
+      <c r="O8" s="32" t="n"/>
+      <c r="P8" s="5" t="n"/>
+      <c r="Q8" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="27" t="inlineStr">
+        <is>
+          <t>אמור</t>
+        </is>
+      </c>
+      <c r="B9" s="28" t="inlineStr">
         <is>
           <t>a.b</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="C9" s="29" t="inlineStr">
         <is>
           <t>b.c</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>a.c</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="D9" s="28" t="n"/>
+      <c r="E9" s="28" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="F9" s="28" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="I7" s="28" t="n">
+      <c r="G9" s="28" t="inlineStr">
+        <is>
+          <t>a.b.c</t>
+        </is>
+      </c>
+      <c r="H9" s="28" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="I9" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="42" t="n">
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="5" t="n"/>
-      <c r="M7" s="42" t="inlineStr">
+      <c r="L9" s="5" t="n"/>
+      <c r="M9" s="31" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="N7" s="5" t="n"/>
-      <c r="O7" s="45" t="n"/>
-      <c r="P7" s="5" t="n"/>
-      <c r="Q7" s="42" t="n">
+      <c r="N9" s="5" t="n"/>
+      <c r="O9" s="32" t="inlineStr">
+        <is>
+          <t>חינה בשלישי בערב. 
+אם אפשר בלי : (b)-(b) בשישי שבת. 
+ומזל טוב לשטיינר</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="n"/>
+      <c r="Q9" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="5" t="n"/>
-    </row>
-    <row r="8" ht="18.4" customHeight="1" thickBot="1">
-      <c r="A8" s="29" t="inlineStr">
-        <is>
-          <t>Worker 5</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="C8" s="12" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="D8" s="12" t="inlineStr">
-        <is>
-          <t>a.c</t>
-        </is>
-      </c>
-      <c r="E8" s="13" t="inlineStr">
-        <is>
-          <t>a.c</t>
-        </is>
-      </c>
-      <c r="F8" s="13" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="G8" s="13" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="H8" s="13" t="inlineStr">
-        <is>
-          <t>a.b.c</t>
-        </is>
-      </c>
-      <c r="I8" s="30" t="n">
+      <c r="R9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="18" t="inlineStr">
+        <is>
+          <t>תגבור</t>
+        </is>
+      </c>
+      <c r="B10" s="19" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C10" s="20" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D10" s="20" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E10" s="19" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="F10" s="19" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="G10" s="19" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="H10" s="19" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="I10" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="J8" s="5" t="n"/>
-      <c r="K8" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" s="5" t="n"/>
-      <c r="M8" s="43" t="inlineStr">
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" s="5" t="n"/>
+      <c r="M10" s="25" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="N8" s="5" t="n"/>
-      <c r="O8" s="45" t="n"/>
-      <c r="P8" s="5" t="n"/>
-      <c r="Q8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="5" t="n"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="31" t="inlineStr">
-        <is>
-          <t>תגבור</t>
-        </is>
-      </c>
-      <c r="B9" s="32" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C9" s="33" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D9" s="33" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="E9" s="32" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="F9" s="32" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="G9" s="32" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="H9" s="32" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="I9" s="35" t="n">
+      <c r="N10" s="5" t="n"/>
+      <c r="O10" s="25" t="n"/>
+      <c r="P10" s="5" t="n"/>
+      <c r="Q10" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="5" t="n"/>
-      <c r="K9" s="44" t="n">
-        <v>6</v>
-      </c>
-      <c r="L9" s="5" t="n"/>
-      <c r="M9" s="44" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="N9" s="5" t="n"/>
-      <c r="O9" s="44" t="n"/>
-      <c r="P9" s="5" t="n"/>
-      <c r="Q9" s="44" t="n">
-        <v>6</v>
-      </c>
-      <c r="R9" s="5" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="n"/>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="5" t="n"/>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="5" t="n"/>
-      <c r="N10" s="5" t="n"/>
-      <c r="O10" s="5" t="n"/>
-      <c r="P10" s="5" t="n"/>
-      <c r="Q10" s="5" t="n"/>
       <c r="R10" s="5" t="n"/>
     </row>
-    <row r="11" ht="32.65" customHeight="1">
-      <c r="A11" s="13" t="inlineStr">
-        <is>
-          <t>כמות משמרות בכל יום</t>
-        </is>
-      </c>
-      <c r="B11" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G11" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" s="13" t="n">
-        <v>6</v>
-      </c>
+    <row r="11">
+      <c r="A11" s="5" t="n"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="5" t="n"/>
       <c r="I11" s="5" t="n"/>
       <c r="J11" s="5" t="n"/>
       <c r="K11" s="5" t="n"/>
@@ -1519,209 +1476,222 @@
       <c r="R11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
+      <c r="A12" s="12" t="inlineStr">
+        <is>
+          <t>כמות משמרות בכל יום</t>
+        </is>
+      </c>
+      <c r="B12" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" s="12" t="n">
+        <v>6</v>
+      </c>
       <c r="I12" s="5" t="n"/>
       <c r="J12" s="5" t="n"/>
       <c r="K12" s="5" t="n"/>
       <c r="L12" s="5" t="n"/>
       <c r="M12" s="5" t="n"/>
       <c r="N12" s="5" t="n"/>
+      <c r="O12" s="5" t="n"/>
+      <c r="P12" s="5" t="n"/>
+      <c r="Q12" s="5" t="n"/>
+      <c r="R12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="5" t="n"/>
+      <c r="I13" s="5" t="n"/>
+      <c r="J13" s="5" t="n"/>
+      <c r="K13" s="5" t="n"/>
+      <c r="L13" s="5" t="n"/>
+      <c r="M13" s="5" t="n"/>
+      <c r="N13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>הערות:</t>
         </is>
       </c>
-      <c r="B13" s="46" t="inlineStr">
-        <is>
-          <t>אם מישהו יכול עד שעה מסויימת תרשום בתוך סוגריים מעוגלות למשל- צהריים עד 21 יהיה: (21:00)b</t>
-        </is>
-      </c>
-      <c r="C13" s="47" t="n"/>
-      <c r="D13" s="47" t="n"/>
-      <c r="E13" s="47" t="n"/>
-      <c r="F13" s="47" t="n"/>
-      <c r="G13" s="47" t="n"/>
-      <c r="H13" s="48" t="n"/>
-      <c r="J13" s="5" t="n"/>
-      <c r="K13" s="6" t="inlineStr">
+      <c r="B14" s="21" t="inlineStr">
+        <is>
+          <t>אם מישהו יכול כמה משמרות באותו יום תפריד ע"י נקודה למשל: a.b.c</t>
+        </is>
+      </c>
+      <c r="C14" s="21" t="n"/>
+      <c r="D14" s="21" t="n"/>
+      <c r="E14" s="21" t="n"/>
+      <c r="F14" s="21" t="n"/>
+      <c r="G14" s="21" t="n"/>
+      <c r="H14" s="21" t="n"/>
+      <c r="J14" s="5" t="n"/>
+      <c r="K14" s="6" t="inlineStr">
         <is>
           <t>מקרא:</t>
         </is>
       </c>
-      <c r="L13" s="10" t="n"/>
-      <c r="M13" s="3" t="inlineStr">
+      <c r="L14" s="10" t="n"/>
+      <c r="M14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> אותיות:</t>
         </is>
       </c>
-      <c r="N13" s="9" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="34" t="inlineStr">
-        <is>
-          <t>אם מישהו יכול משעה מסויימת תרשום בתוך סוגריים מרובעות למשל-צהריים מ15:30 יהיה: [15:30]b</t>
-        </is>
-      </c>
-      <c r="C14" s="34" t="n"/>
-      <c r="D14" s="34" t="n"/>
-      <c r="E14" s="34" t="n"/>
-      <c r="F14" s="34" t="n"/>
-      <c r="G14" s="34" t="n"/>
-      <c r="H14" s="34" t="n"/>
-      <c r="J14" s="5" t="n"/>
-      <c r="K14" s="7" t="inlineStr">
+      <c r="N14" s="9" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="21" t="inlineStr">
+        <is>
+          <t>אם תרצה לשנות אותיות תחליף את האות שנמצאת בתא של "בחירת אותיות"-M1 (חייב אות יחידה באנגלית)</t>
+        </is>
+      </c>
+      <c r="C15" s="21" t="n"/>
+      <c r="D15" s="21" t="n"/>
+      <c r="E15" s="21" t="n"/>
+      <c r="F15" s="21" t="n"/>
+      <c r="G15" s="21" t="n"/>
+      <c r="H15" s="21" t="n"/>
+      <c r="J15" s="5" t="n"/>
+      <c r="K15" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> - רק בוקר</t>
-        </is>
-      </c>
-      <c r="L14" s="4" t="n"/>
-      <c r="M14" s="7" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="N14" s="5" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="34" t="inlineStr">
-        <is>
-          <t>אם מישהו יכול כמה משמרות באותו יום תפריד ע"י נקודה למשל: a.b.c</t>
-        </is>
-      </c>
-      <c r="C15" s="34" t="n"/>
-      <c r="D15" s="34" t="n"/>
-      <c r="E15" s="34" t="n"/>
-      <c r="F15" s="34" t="n"/>
-      <c r="G15" s="34" t="n"/>
-      <c r="H15" s="34" t="n"/>
-      <c r="J15" s="5" t="n"/>
-      <c r="K15" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - רק צהריים</t>
         </is>
       </c>
       <c r="L15" s="4" t="n"/>
       <c r="M15" s="7" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="N15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="34" t="inlineStr">
-        <is>
-          <t>אם תרצה לשנות אותיות תחליף את האות שנמצאת בתא של "בחירת אותיות"-M1 (חייב אות יחידה באנגלית)</t>
-        </is>
-      </c>
-      <c r="C16" s="34" t="n"/>
-      <c r="D16" s="34" t="n"/>
-      <c r="E16" s="34" t="n"/>
-      <c r="F16" s="34" t="n"/>
-      <c r="G16" s="34" t="n"/>
-      <c r="H16" s="34" t="n"/>
+      <c r="B16" s="21" t="inlineStr">
+        <is>
+          <t>לשמור על סדר באותיות למשל אם מישהו רוצה בוקר צהריים אז לרשום: a.b (ולא לרשום b.a)</t>
+        </is>
+      </c>
+      <c r="C16" s="21" t="n"/>
+      <c r="D16" s="21" t="n"/>
+      <c r="E16" s="21" t="n"/>
+      <c r="F16" s="21" t="n"/>
+      <c r="G16" s="21" t="n"/>
+      <c r="H16" s="21" t="n"/>
       <c r="J16" s="5" t="n"/>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - רק לילה</t>
+          <t xml:space="preserve"> - רק צהריים</t>
         </is>
       </c>
       <c r="L16" s="4" t="n"/>
       <c r="M16" s="7" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="N16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="34" t="inlineStr">
-        <is>
-          <t>לשמור על סדר באותיות למשל אם מישהו רוצה בוקר צהריים אז לרשום: a.b (ולא לרשום b.a)</t>
-        </is>
-      </c>
-      <c r="C17" s="34" t="n"/>
-      <c r="D17" s="34" t="n"/>
-      <c r="E17" s="34" t="n"/>
-      <c r="F17" s="34" t="n"/>
-      <c r="G17" s="34" t="n"/>
-      <c r="H17" s="34" t="n"/>
       <c r="J17" s="5" t="n"/>
-      <c r="K17" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - פנוי להכל</t>
+      <c r="K17" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - רק לילה</t>
         </is>
       </c>
       <c r="L17" s="4" t="n"/>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>c</t>
         </is>
       </c>
       <c r="N17" s="5" t="n"/>
     </row>
     <row r="18">
       <c r="J18" s="5" t="n"/>
-      <c r="K18" s="8" t="inlineStr">
-        <is>
-          <t>משבצת ריקה - לא יכול בכלל</t>
+      <c r="K18" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - פנוי להכל</t>
         </is>
       </c>
       <c r="L18" s="4" t="n"/>
-      <c r="M18" s="11" t="n"/>
+      <c r="M18" s="7" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
       <c r="N18" s="5" t="n"/>
     </row>
     <row r="19">
       <c r="J19" s="5" t="n"/>
-      <c r="K19" s="5" t="n"/>
-      <c r="L19" s="5" t="n"/>
-      <c r="M19" s="5" t="n"/>
+      <c r="K19" s="8" t="inlineStr">
+        <is>
+          <t>משבצת ריקה - לא יכול בכלל</t>
+        </is>
+      </c>
+      <c r="L19" s="4" t="n"/>
+      <c r="M19" s="11" t="n"/>
       <c r="N19" s="5" t="n"/>
     </row>
     <row r="20">
       <c r="J20" s="5" t="n"/>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>כמות אנשים:</t>
-        </is>
-      </c>
+      <c r="K20" s="5" t="n"/>
       <c r="L20" s="5" t="n"/>
-      <c r="M20" s="8" t="n">
-        <v>7</v>
-      </c>
+      <c r="M20" s="5" t="n"/>
       <c r="N20" s="5" t="n"/>
     </row>
     <row r="21">
       <c r="J21" s="5" t="n"/>
       <c r="K21" s="8" t="inlineStr">
         <is>
-          <t>כמות לילות לכל עובד:</t>
+          <t>כמות אנשים:</t>
         </is>
       </c>
       <c r="L21" s="5" t="n"/>
       <c r="M21" s="8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="J22" s="5" t="n"/>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>כמות לילות לכל עובד:</t>
+        </is>
+      </c>
       <c r="L22" s="5" t="n"/>
+      <c r="M22" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="N22" s="5" t="n"/>
     </row>
+    <row r="23">
+      <c r="J23" s="5" t="n"/>
+      <c r="L23" s="5" t="n"/>
+      <c r="N23" s="5" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B13:H13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>